--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -999,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,17 +1011,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1030,13 +1051,975 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1966,7 +1967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,17 +1978,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1997,14 +2018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.78</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2013,13 +2056,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2517,7 +2518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,17 +2529,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2548,14 +2569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.51</v>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2564,14 +2607,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.78</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2580,13 +2645,591 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,545 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163804</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中银收益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6661</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.84</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4337</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011550</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2284</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1752</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1462</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>72.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>74.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011551</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>74.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1002,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>530005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>建信优化配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>29.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0113</t>
+          <t>1.1926</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1091,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6188</t>
+          <t>1.1787</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1129,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163804</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银收益混合A</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9346</t>
+          <t>0.5866</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1167,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011369</t>
+          <t>014967</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商均衡成长混合A</t>
+          <t>建信潜力新蓝筹股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.03</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3025</t>
+          <t>0.5012</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1205,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>013919</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>建信中小盘先锋股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2555</t>
+          <t>0.4844</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1243,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001143</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商量化进取灵活配置混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.74</t>
+          <t>90.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2500</t>
+          <t>0.4154</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1281,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163822</t>
+          <t>012850</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银主题策略混合</t>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2419</t>
+          <t>0.1981</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1319,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010076</t>
+          <t>011346</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>湘财长弘灵活配置混合A</t>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>77.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2016</t>
+          <t>0.1427</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1357,32 +909,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>011550</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>湘财创新成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1696</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1395,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>630005</t>
+          <t>012851</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商动态阿尔法混合</t>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1450</t>
+          <t>0.0343</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1433,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1436</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1471,32 +1023,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000609</t>
+          <t>011551</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商新量化灵活配置混合</t>
+          <t>湘财创新成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.98</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1155</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1509,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010293</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商量化优质精选混合</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1024</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1547,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000279</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商红利优选混合</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.54</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1585,376 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009379</t>
+          <t>015436</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银成长优选股票</t>
+          <t>建信优化配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.78</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011370</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011551</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>77.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960012</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银收益混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>43.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>014505</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银收益混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +1730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2569,36 +1781,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.16</t>
+          <t>29.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1926</t>
+          <t>2.0113</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2607,36 +1819,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>530005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>建信优化配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1787</t>
+          <t>1.6188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2645,36 +1857,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5866</t>
+          <t>0.9346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2683,32 +1895,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014967</t>
+          <t>011369</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票C</t>
+          <t>华商均衡成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>88.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5012</t>
+          <t>0.3025</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2721,36 +1933,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013919</t>
+          <t>011550</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票C</t>
+          <t>湘财创新成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4844</t>
+          <t>0.2555</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2759,36 +1971,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>001143</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>华商量化进取灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>85.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4154</t>
+          <t>0.2500</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2797,36 +2009,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012850</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+          <t>中银主题策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1981</t>
+          <t>0.2419</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2835,36 +2047,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011346</t>
+          <t>010076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+          <t>湘财长弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.84</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1427</t>
+          <t>0.2016</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2873,32 +2085,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0746</t>
+          <t>0.1696</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2911,36 +2123,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012851</t>
+          <t>630005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+          <t>华商动态阿尔法混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.15</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2949,36 +2161,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.1436</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2987,32 +2199,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011551</t>
+          <t>000609</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合C</t>
+          <t>华商新量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>85.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.1155</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3025,36 +2237,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>010293</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>华商量化优质精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.1024</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3063,36 +2275,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>000279</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>华商红利优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>67.54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3101,36 +2313,376 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>015436</t>
+          <t>009379</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信优化配置混合C</t>
+          <t>中银成长优选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>84.78</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3144,96 +2696,544 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.84</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.51</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.78</v>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.85</v>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>4.84</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>4.51</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>6.78</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -549,6 +566,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1174,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1724,7 +3431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2690,7 +4397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002897-意华股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>12.04</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>4.84</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.51</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>6.78</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -566,6 +583,3058 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015696</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银绿色能源混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014975</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016071</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016564</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2255,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2881,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3431,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4397,7 +7466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
